--- a/medicine/Soins infirmiers et profession infirmière/Institut_Guttmann/Institut_Guttmann.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Institut_Guttmann/Institut_Guttmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Guttmann est un centre thérapeutique spécialisé dans les cas de patients paraplégiques et tétraplégiques inauguré à Barcelone en 1965 par l'entrepreneur Guillermo González Gilbey. En 2002, le centre s'installe dans un nouveau bâtiment plus spacieux à Badalone.
 Il s'agit d'un hôpital spécialisé dans le traitement médical et chirurgical ainsi que dans la réhabilitation, autant psychologique que sociale, des personnes atteintes de traumatismes médullaires, dommages cérébraux acquis ou tout autre handicap physique d'origine neurologique. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fondateur Guillermo González Gilbey subit un accident de la route en 1958 et devient tétraplégique. Il est soigné pendant quatre mois dans divers hôpitaux espagnols, mais sans résultat. Il est ensuite hospitalisé à l'hôpital londonien de Stoke Mandeville. C'est là qu'il découvre les méthodes du docteur Ludwig Guttmann pour le traitement intégral des traumatismes médullaires et il décide de créer, à son retour à Barcelone, un centre inspiré par ces méthodes. 
 Le premier directeur médical est le docteur Miguel Sarrias Domingo, qui avait été formé par le docteur Josep Trueta à Oxford.
